--- a/all_included_hotel/inventories/lci_batteries.xlsx
+++ b/all_included_hotel/inventories/lci_batteries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vitoresearch-my.sharepoint.com/personal/roel_degens_vito_be/Documents/Desktop/Autumnschool_recharge/recharge-main/all_included_hotel/inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F061798D-BCDB-4B82-B7AA-7C44C508D788}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{F061798D-BCDB-4B82-B7AA-7C44C508D788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20ECB74D-9254-4BFC-9021-18B87D381172}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="6750" xr2:uid="{29BAEAEB-FD04-4545-830A-C2788DA59048}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{29BAEAEB-FD04-4545-830A-C2788DA59048}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -33,10 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="115">
-  <si>
-    <t>Database</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="114">
   <si>
     <t/>
   </si>
@@ -763,692 +771,690 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77A86B4-4A65-462C-855F-60225E3CE5BE}">
   <dimension ref="A1:H152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="118" workbookViewId="0">
-      <selection activeCell="B153" sqref="B153"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="72.140625" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="1" max="1" width="72.109375" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>25</v>
       </c>
       <c r="B13" s="4">
         <v>12.51</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s">
         <v>41</v>
       </c>
-      <c r="F13" t="s">
-        <v>42</v>
-      </c>
       <c r="G13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="4">
         <v>1.1875</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="4">
         <v>0.41</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>28</v>
       </c>
       <c r="B16" s="4">
         <v>0.2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>29</v>
       </c>
       <c r="B17" s="4">
         <v>0.14599999999999999</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>30</v>
       </c>
       <c r="B18" s="4">
         <v>0.12</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>31</v>
       </c>
       <c r="B19" s="4">
         <v>3.3500000000000002E-2</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="4">
         <v>3.3500000000000002E-2</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="4">
         <v>0.03</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>34</v>
       </c>
       <c r="B22" s="4">
         <v>2.8299999999999999E-2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="4">
         <v>2.8299999999999999E-2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="4">
         <v>0.02</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>37</v>
       </c>
       <c r="B25" s="4">
         <v>4.1000000000000003E-3</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="4">
         <v>2.8E-3</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="4">
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" s="5">
         <v>4.0000000000000001E-10</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1458,7 +1464,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1468,503 +1474,503 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="B34" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="B37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="B38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F39" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B40" s="3">
         <v>1</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B41" s="4">
         <v>2.7744750000000002E-3</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" t="s">
+        <v>62</v>
+      </c>
+      <c r="G41" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" t="s">
         <v>63</v>
       </c>
-      <c r="G41" t="s">
-        <v>19</v>
-      </c>
-      <c r="H41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B42" s="4">
         <v>5.9188796000000002E-2</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B43" s="4">
         <v>0.20568106799999999</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B44" s="4">
         <v>0.440587837837838</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H44" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B45" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B46" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H46" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B47" s="4">
         <v>25.864634146341501</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H47" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B48" s="4">
         <v>5.5999999999999999E-3</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H48" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B49" s="5">
         <v>4.0000000000000001E-10</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H49" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B50" s="4">
         <v>0.95</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1974,7 +1980,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1984,488 +1990,488 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="B54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="B56" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="B59" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="B60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F61" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" s="3">
         <v>1</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B63" s="4">
         <v>3.2859232000000002E-2</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F63" t="s">
+        <v>62</v>
+      </c>
+      <c r="G63" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" t="s">
         <v>63</v>
       </c>
-      <c r="G63" t="s">
-        <v>19</v>
-      </c>
-      <c r="H63" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B64" s="4">
         <v>2.6585139999999998E-3</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B65" s="4">
         <v>6.3697992999999994E-2</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H65" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B66" s="4">
         <v>2.2225175999999999E-2</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B67" s="4">
         <v>6.8736953390000002</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H67" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" s="4">
         <v>0.38300000000000001</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H68" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" s="4">
         <v>0.94899999999999995</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H69" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B70" s="5">
         <v>7.4100000000000003E-10</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H70" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B71" s="4">
         <v>0.20699999999999999</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B72" s="4">
         <v>1.2504399999999999E-4</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E72" t="s">
+        <v>76</v>
+      </c>
+      <c r="F72" t="s">
         <v>77</v>
       </c>
-      <c r="F72" t="s">
-        <v>78</v>
-      </c>
       <c r="G72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2473,1700 +2479,1700 @@
       <c r="F73" s="1"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+      <c r="B75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+      <c r="B77" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="B80" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+      <c r="B81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="D82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E82" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F82" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B83" s="3">
         <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B84" s="4">
         <v>2.6585139999999998E-3</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D84" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G84" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H84" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B85" s="4">
         <v>2.2225175999999999E-2</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G85" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H85" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B86" s="4">
         <v>3.2859232000000002E-2</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D86" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" t="s">
+        <v>62</v>
+      </c>
+      <c r="G86" t="s">
+        <v>18</v>
+      </c>
+      <c r="H86" t="s">
         <v>63</v>
       </c>
-      <c r="G86" t="s">
-        <v>19</v>
-      </c>
-      <c r="H86" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B87" s="4">
         <v>6.3697992999999994E-2</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G87" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H87" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B88" s="4">
         <v>39.556470381406903</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D88" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G88" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H88" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B89" s="4">
         <v>0.86360624003470599</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G89" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B90" s="4">
         <v>0.32600000000000001</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D90" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G90" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B91" s="4">
         <v>0.97799999999999998</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G91" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H91" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B92" s="4">
         <v>0.32600000000000001</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G92" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H92" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B93" s="4">
         <v>5.8764994003199598E-3</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D93" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G93" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H93" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B94" s="4">
         <v>7.1940002862808998E-10</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H94" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B95" s="4">
         <v>-6.1963397318955398E-4</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D95" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G95" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H95" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B96" s="4">
         <v>5.8764994003199598E-3</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G96" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B97" s="4">
         <v>6.1963397318955398E-4</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F97" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G97" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H97" s="1"/>
     </row>
-    <row r="100" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+      <c r="B101" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="C102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+      <c r="B103" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+      <c r="B106" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+      <c r="B107" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+      <c r="B108" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="D108" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E108" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D108" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F108" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B109" s="3">
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D109" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F109" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B110" s="4">
         <v>0.02</v>
       </c>
       <c r="C110" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D110" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F110" t="s">
+        <v>62</v>
+      </c>
+      <c r="G110" t="s">
+        <v>18</v>
+      </c>
+      <c r="H110" t="s">
         <v>63</v>
       </c>
-      <c r="G110" t="s">
-        <v>19</v>
-      </c>
-      <c r="H110" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B111" s="4">
         <v>0.02</v>
       </c>
       <c r="C111" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D111" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F111" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G111" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H111" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B112" s="4">
         <v>0.35088000000000003</v>
       </c>
       <c r="C112" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D112" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F112" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G112" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H112" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B113" s="4">
         <v>0.35088000000000003</v>
       </c>
       <c r="C113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D113" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F113" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G113" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H113" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B114" s="4">
         <v>0.29117999999999999</v>
       </c>
       <c r="C114" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D114" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F114" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G114" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H114" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B115" s="4">
         <v>0.21839</v>
       </c>
       <c r="C115" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D115" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F115" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G115" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H115" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B116" s="4">
         <v>0.19327</v>
       </c>
       <c r="C116" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D116" t="s">
+        <v>40</v>
+      </c>
+      <c r="F116" t="s">
         <v>41</v>
       </c>
-      <c r="F116" t="s">
-        <v>42</v>
-      </c>
       <c r="G116" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H116" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B117" s="4">
         <v>0.19217999999999999</v>
       </c>
       <c r="C117" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D117" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F117" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G117" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H117" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B118" s="4">
         <v>2.6207000000000001E-2</v>
       </c>
       <c r="C118" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D118" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F118" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G118" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H118" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B119" s="4">
         <v>1.4376999999999999E-2</v>
       </c>
       <c r="C119" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D119" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F119" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G119" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H119" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B120" s="4">
         <v>2E-3</v>
       </c>
       <c r="C120" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D120" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F120" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G120" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H120" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B121" s="5">
         <v>4.0000000000000001E-10</v>
       </c>
       <c r="C121" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D121" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F121" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G121" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H121" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B122" s="4">
         <v>-5.3941999999999997E-2</v>
       </c>
       <c r="C122" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D122" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F122" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G122" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H122" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
+      <c r="C127" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
+      <c r="B128" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="B129" s="1">
         <v>1</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="B131" s="1"/>
       <c r="C131" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
+      <c r="B133" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B133" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
+      <c r="B134" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
+      <c r="B135" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="C135" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="D135" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E135" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D135" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F135" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B136" s="1">
         <v>1</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E136" s="1"/>
       <c r="F136" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H136" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>108</v>
       </c>
       <c r="B137">
         <v>4.9500000000000002E-2</v>
       </c>
       <c r="C137" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D137" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F137" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G137" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H137" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>34</v>
       </c>
       <c r="B138">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="C138" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D138" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F138" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G138" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H138" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B139">
         <v>0.1779</v>
       </c>
       <c r="C139" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D139" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F139" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G139" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H139" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B140">
         <v>1.5599999999999999E-2</v>
       </c>
       <c r="C140" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D140" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F140" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G140" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H140" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B141">
         <v>0.36759999999999998</v>
       </c>
       <c r="C141" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D141" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F141" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G141" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H141" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B142" s="6">
         <v>4.0000000000000001E-10</v>
       </c>
       <c r="C142" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D142" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F142" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G142" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H142" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B143">
         <v>0.1099</v>
       </c>
       <c r="C143" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D143" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F143" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G143" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H143" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B144">
         <v>2.92E-2</v>
       </c>
       <c r="C144" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D144" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F144" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G144" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H144" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B145">
         <v>0.2215</v>
       </c>
       <c r="C145" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D145" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F145" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G145" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H145" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B146">
         <v>4.1999999999999997E-3</v>
       </c>
       <c r="C146" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D146" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F146" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G146" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H146" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B147" s="8">
         <f>0.8*10.0965</f>
         <v>8.0772000000000013</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D147" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F147" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F147" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="G147" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H147" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B148">
         <v>3.0999999999999999E-3</v>
       </c>
       <c r="C148" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D148" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F148" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G148" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H148" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B149">
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="C149" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D149" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F149" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G149" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H149" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B150">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="C150" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D150" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F150" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G150" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H150" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B151">
         <v>2.92E-2</v>
       </c>
       <c r="C151" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D151" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F151" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G151" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H151" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B152" s="8">
         <f>0.8*0.958424334</f>
         <v>0.76673946720000008</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F152" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G152" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H152" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/all_included_hotel/inventories/lci_batteries.xlsx
+++ b/all_included_hotel/inventories/lci_batteries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vitoresearch-my.sharepoint.com/personal/roel_degens_vito_be/Documents/Desktop/Autumnschool_recharge/recharge-main/all_included_hotel/inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{F061798D-BCDB-4B82-B7AA-7C44C508D788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20ECB74D-9254-4BFC-9021-18B87D381172}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{F061798D-BCDB-4B82-B7AA-7C44C508D788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7E03FC0-0556-4CBF-99B2-7E158DB6E62E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{29BAEAEB-FD04-4545-830A-C2788DA59048}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="115">
   <si>
     <t/>
   </si>
@@ -115,9 +115,6 @@
     <t>battery cell, NMC-622</t>
   </si>
   <si>
-    <t>battery cell</t>
-  </si>
-  <si>
     <t>market for heat, district or industrial, natural gas</t>
   </si>
   <si>
@@ -386,6 +383,12 @@
   </si>
   <si>
     <t>cathode, LFP, for Li-ion battery</t>
+  </si>
+  <si>
+    <t>battery cell, Li-ion, NMC-622</t>
+  </si>
+  <si>
+    <t>battery cell, Li-ion, PLIB</t>
   </si>
 </sst>
 </file>
@@ -771,7 +774,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77A86B4-4A65-462C-855F-60225E3CE5BE}">
   <dimension ref="A1:H152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -784,7 +789,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -913,8 +918,8 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>23</v>
+      <c r="B6" t="s">
+        <v>113</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>0</v>
@@ -990,7 +995,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>0</v>
@@ -1071,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
@@ -1083,12 +1088,12 @@
         <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="4">
         <v>12.51</v>
@@ -1097,21 +1102,21 @@
         <v>15</v>
       </c>
       <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s">
         <v>40</v>
       </c>
-      <c r="F13" t="s">
-        <v>41</v>
-      </c>
       <c r="G13" t="s">
         <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="4">
         <v>1.1875</v>
@@ -1123,24 +1128,24 @@
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
         <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="4">
         <v>0.41</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
@@ -1152,12 +1157,12 @@
         <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="4">
         <v>0.2</v>
@@ -1175,12 +1180,12 @@
         <v>18</v>
       </c>
       <c r="H16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="4">
         <v>0.14599999999999999</v>
@@ -1198,12 +1203,12 @@
         <v>18</v>
       </c>
       <c r="H17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="4">
         <v>0.12</v>
@@ -1221,12 +1226,12 @@
         <v>18</v>
       </c>
       <c r="H18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="4">
         <v>3.3500000000000002E-2</v>
@@ -1244,12 +1249,12 @@
         <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="4">
         <v>3.3500000000000002E-2</v>
@@ -1267,12 +1272,12 @@
         <v>18</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="4">
         <v>0.03</v>
@@ -1290,12 +1295,12 @@
         <v>18</v>
       </c>
       <c r="H21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="4">
         <v>2.8299999999999999E-2</v>
@@ -1313,12 +1318,12 @@
         <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="4">
         <v>2.8299999999999999E-2</v>
@@ -1336,18 +1341,18 @@
         <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="4">
         <v>0.02</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24" t="s">
         <v>16</v>
@@ -1359,12 +1364,12 @@
         <v>18</v>
       </c>
       <c r="H24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" s="4">
         <v>4.1000000000000003E-3</v>
@@ -1382,12 +1387,12 @@
         <v>18</v>
       </c>
       <c r="H25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" s="4">
         <v>2.8E-3</v>
@@ -1405,12 +1410,12 @@
         <v>18</v>
       </c>
       <c r="H26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" s="4">
         <v>1.2999999999999999E-3</v>
@@ -1428,12 +1433,12 @@
         <v>18</v>
       </c>
       <c r="H27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" s="5">
         <v>4.0000000000000001E-10</v>
@@ -1451,7 +1456,7 @@
         <v>18</v>
       </c>
       <c r="H28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1479,7 +1484,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>0</v>
@@ -1557,7 +1562,7 @@
         <v>5</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>0</v>
@@ -1633,7 +1638,7 @@
         <v>8</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>0</v>
@@ -1708,13 +1713,13 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B40" s="3">
         <v>1</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D40" t="s">
         <v>16</v>
@@ -1727,12 +1732,12 @@
         <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B41" s="4">
         <v>2.7744750000000002E-3</v>
@@ -1741,22 +1746,22 @@
         <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" t="s">
+        <v>61</v>
+      </c>
+      <c r="G41" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" t="s">
         <v>62</v>
-      </c>
-      <c r="G41" t="s">
-        <v>18</v>
-      </c>
-      <c r="H41" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B42" s="4">
         <v>5.9188796000000002E-2</v>
@@ -1765,22 +1770,22 @@
         <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G42" t="s">
         <v>18</v>
       </c>
       <c r="H42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B43" s="4">
         <v>0.20568106799999999</v>
@@ -1793,18 +1798,18 @@
       </c>
       <c r="E43" s="1"/>
       <c r="F43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G43" t="s">
         <v>18</v>
       </c>
       <c r="H43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B44" s="4">
         <v>0.440587837837838</v>
@@ -1817,18 +1822,18 @@
       </c>
       <c r="E44" s="1"/>
       <c r="F44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G44" t="s">
         <v>18</v>
       </c>
       <c r="H44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B45" s="4">
         <v>2.5000000000000001E-2</v>
@@ -1847,12 +1852,12 @@
         <v>18</v>
       </c>
       <c r="H45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B46" s="4">
         <v>2.5000000000000001E-2</v>
@@ -1871,12 +1876,12 @@
         <v>18</v>
       </c>
       <c r="H46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B47" s="4">
         <v>25.864634146341501</v>
@@ -1885,22 +1890,22 @@
         <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G47" t="s">
         <v>18</v>
       </c>
       <c r="H47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B48" s="4">
         <v>5.5999999999999999E-3</v>
@@ -1919,12 +1924,12 @@
         <v>18</v>
       </c>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B49" s="5">
         <v>4.0000000000000001E-10</v>
@@ -1943,18 +1948,18 @@
         <v>18</v>
       </c>
       <c r="H49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B50" s="4">
         <v>0.95</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D50" t="s">
         <v>16</v>
@@ -1967,7 +1972,7 @@
         <v>18</v>
       </c>
       <c r="H50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -1995,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>0</v>
@@ -2073,7 +2078,7 @@
         <v>5</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>0</v>
@@ -2149,7 +2154,7 @@
         <v>8</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>0</v>
@@ -2224,13 +2229,13 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="3">
         <v>1</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D62" t="s">
         <v>16</v>
@@ -2242,12 +2247,12 @@
         <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B63" s="4">
         <v>3.2859232000000002E-2</v>
@@ -2256,21 +2261,21 @@
         <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F63" t="s">
+        <v>61</v>
+      </c>
+      <c r="G63" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" t="s">
         <v>62</v>
-      </c>
-      <c r="G63" t="s">
-        <v>18</v>
-      </c>
-      <c r="H63" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B64" s="4">
         <v>2.6585139999999998E-3</v>
@@ -2279,21 +2284,21 @@
         <v>15</v>
       </c>
       <c r="D64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G64" t="s">
         <v>18</v>
       </c>
       <c r="H64" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B65" s="4">
         <v>6.3697992999999994E-2</v>
@@ -2305,18 +2310,18 @@
         <v>16</v>
       </c>
       <c r="F65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G65" t="s">
         <v>18</v>
       </c>
       <c r="H65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B66" s="4">
         <v>2.2225175999999999E-2</v>
@@ -2325,21 +2330,21 @@
         <v>15</v>
       </c>
       <c r="D66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F66" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G66" t="s">
         <v>18</v>
       </c>
       <c r="H66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B67" s="4">
         <v>6.8736953390000002</v>
@@ -2351,18 +2356,18 @@
         <v>16</v>
       </c>
       <c r="F67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G67" t="s">
         <v>18</v>
       </c>
       <c r="H67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B68" s="4">
         <v>0.38300000000000001</v>
@@ -2380,18 +2385,18 @@
         <v>18</v>
       </c>
       <c r="H68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B69" s="4">
         <v>0.94899999999999995</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D69" t="s">
         <v>16</v>
@@ -2403,12 +2408,12 @@
         <v>18</v>
       </c>
       <c r="H69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B70" s="5">
         <v>7.4100000000000003E-10</v>
@@ -2426,7 +2431,7 @@
         <v>18</v>
       </c>
       <c r="H70" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -2440,7 +2445,7 @@
         <v>15</v>
       </c>
       <c r="E71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F71" t="s">
         <v>17</v>
@@ -2452,7 +2457,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" s="4">
         <v>1.2504399999999999E-4</v>
@@ -2461,10 +2466,10 @@
         <v>15</v>
       </c>
       <c r="E72" t="s">
+        <v>75</v>
+      </c>
+      <c r="F72" t="s">
         <v>76</v>
-      </c>
-      <c r="F72" t="s">
-        <v>77</v>
       </c>
       <c r="G72" t="s">
         <v>19</v>
@@ -2484,7 +2489,7 @@
         <v>1</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>0</v>
@@ -2562,7 +2567,7 @@
         <v>5</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>0</v>
@@ -2638,7 +2643,7 @@
         <v>8</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>0</v>
@@ -2713,13 +2718,13 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B83" s="3">
         <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D83" t="s">
         <v>16</v>
@@ -2732,12 +2737,12 @@
         <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B84" s="4">
         <v>2.6585139999999998E-3</v>
@@ -2746,22 +2751,22 @@
         <v>15</v>
       </c>
       <c r="D84" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G84" t="s">
         <v>18</v>
       </c>
       <c r="H84" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B85" s="4">
         <v>2.2225175999999999E-2</v>
@@ -2770,22 +2775,22 @@
         <v>15</v>
       </c>
       <c r="D85" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G85" t="s">
         <v>18</v>
       </c>
       <c r="H85" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B86" s="4">
         <v>3.2859232000000002E-2</v>
@@ -2794,22 +2799,22 @@
         <v>15</v>
       </c>
       <c r="D86" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" t="s">
+        <v>61</v>
+      </c>
+      <c r="G86" t="s">
+        <v>18</v>
+      </c>
+      <c r="H86" t="s">
         <v>62</v>
-      </c>
-      <c r="G86" t="s">
-        <v>18</v>
-      </c>
-      <c r="H86" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B87" s="4">
         <v>6.3697992999999994E-2</v>
@@ -2822,18 +2827,18 @@
       </c>
       <c r="E87" s="1"/>
       <c r="F87" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G87" t="s">
         <v>18</v>
       </c>
       <c r="H87" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B88" s="4">
         <v>39.556470381406903</v>
@@ -2842,22 +2847,22 @@
         <v>15</v>
       </c>
       <c r="D88" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G88" t="s">
         <v>18</v>
       </c>
       <c r="H88" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B89" s="4">
         <v>0.86360624003470599</v>
@@ -2876,12 +2881,12 @@
         <v>18</v>
       </c>
       <c r="H89" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B90" s="4">
         <v>0.32600000000000001</v>
@@ -2890,7 +2895,7 @@
         <v>15</v>
       </c>
       <c r="D90" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" t="s">
@@ -2900,12 +2905,12 @@
         <v>18</v>
       </c>
       <c r="H90" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B91" s="4">
         <v>0.97799999999999998</v>
@@ -2924,12 +2929,12 @@
         <v>18</v>
       </c>
       <c r="H91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B92" s="4">
         <v>0.32600000000000001</v>
@@ -2948,12 +2953,12 @@
         <v>18</v>
       </c>
       <c r="H92" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B93" s="4">
         <v>5.8764994003199598E-3</v>
@@ -2962,7 +2967,7 @@
         <v>15</v>
       </c>
       <c r="D93" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" t="s">
@@ -2972,12 +2977,12 @@
         <v>18</v>
       </c>
       <c r="H93" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B94" s="4">
         <v>7.1940002862808998E-10</v>
@@ -2996,12 +3001,12 @@
         <v>18</v>
       </c>
       <c r="H94" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B95" s="4">
         <v>-6.1963397318955398E-4</v>
@@ -3010,17 +3015,17 @@
         <v>15</v>
       </c>
       <c r="D95" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G95" t="s">
         <v>18</v>
       </c>
       <c r="H95" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
@@ -3035,7 +3040,7 @@
       </c>
       <c r="D96" s="1"/>
       <c r="E96" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F96" t="s">
         <v>17</v>
@@ -3047,7 +3052,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B97" s="4">
         <v>6.1963397318955398E-4</v>
@@ -3057,10 +3062,10 @@
       </c>
       <c r="D97" s="1"/>
       <c r="E97" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F97" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G97" t="s">
         <v>19</v>
@@ -3072,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>0</v>
@@ -3150,7 +3155,7 @@
         <v>5</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>0</v>
@@ -3226,7 +3231,7 @@
         <v>8</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>0</v>
@@ -3301,13 +3306,13 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B109" s="3">
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D109" t="s">
         <v>16</v>
@@ -3319,12 +3324,12 @@
         <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B110" s="4">
         <v>0.02</v>
@@ -3336,18 +3341,18 @@
         <v>16</v>
       </c>
       <c r="F110" t="s">
+        <v>61</v>
+      </c>
+      <c r="G110" t="s">
+        <v>18</v>
+      </c>
+      <c r="H110" t="s">
         <v>62</v>
-      </c>
-      <c r="G110" t="s">
-        <v>18</v>
-      </c>
-      <c r="H110" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B111" s="4">
         <v>0.02</v>
@@ -3356,21 +3361,21 @@
         <v>15</v>
       </c>
       <c r="D111" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F111" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G111" t="s">
         <v>18</v>
       </c>
       <c r="H111" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B112" s="4">
         <v>0.35088000000000003</v>
@@ -3388,12 +3393,12 @@
         <v>18</v>
       </c>
       <c r="H112" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B113" s="4">
         <v>0.35088000000000003</v>
@@ -3411,12 +3416,12 @@
         <v>18</v>
       </c>
       <c r="H113" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B114" s="4">
         <v>0.29117999999999999</v>
@@ -3434,12 +3439,12 @@
         <v>18</v>
       </c>
       <c r="H114" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B115" s="4">
         <v>0.21839</v>
@@ -3457,12 +3462,12 @@
         <v>18</v>
       </c>
       <c r="H115" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B116" s="4">
         <v>0.19327</v>
@@ -3471,21 +3476,21 @@
         <v>15</v>
       </c>
       <c r="D116" t="s">
+        <v>39</v>
+      </c>
+      <c r="F116" t="s">
         <v>40</v>
       </c>
-      <c r="F116" t="s">
-        <v>41</v>
-      </c>
       <c r="G116" t="s">
         <v>18</v>
       </c>
       <c r="H116" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B117" s="4">
         <v>0.19217999999999999</v>
@@ -3503,12 +3508,12 @@
         <v>18</v>
       </c>
       <c r="H117" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B118" s="4">
         <v>2.6207000000000001E-2</v>
@@ -3526,12 +3531,12 @@
         <v>18</v>
       </c>
       <c r="H118" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B119" s="4">
         <v>1.4376999999999999E-2</v>
@@ -3540,7 +3545,7 @@
         <v>15</v>
       </c>
       <c r="D119" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F119" t="s">
         <v>17</v>
@@ -3549,12 +3554,12 @@
         <v>18</v>
       </c>
       <c r="H119" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B120" s="4">
         <v>2E-3</v>
@@ -3566,18 +3571,18 @@
         <v>16</v>
       </c>
       <c r="F120" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G120" t="s">
         <v>18</v>
       </c>
       <c r="H120" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B121" s="5">
         <v>4.0000000000000001E-10</v>
@@ -3595,12 +3600,12 @@
         <v>18</v>
       </c>
       <c r="H121" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B122" s="4">
         <v>-5.3941999999999997E-2</v>
@@ -3609,7 +3614,7 @@
         <v>15</v>
       </c>
       <c r="D122" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F122" t="s">
         <v>17</v>
@@ -3618,7 +3623,7 @@
         <v>18</v>
       </c>
       <c r="H122" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3626,7 +3631,7 @@
         <v>1</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>0</v>
@@ -3677,7 +3682,7 @@
         <v>5</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>0</v>
@@ -3726,7 +3731,7 @@
         <v>8</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>0</v>
@@ -3783,13 +3788,13 @@
     </row>
     <row r="136" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B136" s="1">
         <v>1</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>16</v>
@@ -3802,12 +3807,12 @@
         <v>14</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B137">
         <v>4.9500000000000002E-2</v>
@@ -3825,12 +3830,12 @@
         <v>18</v>
       </c>
       <c r="H137" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B138">
         <v>2.5999999999999999E-2</v>
@@ -3848,12 +3853,12 @@
         <v>18</v>
       </c>
       <c r="H138" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B139">
         <v>0.1779</v>
@@ -3862,7 +3867,7 @@
         <v>15</v>
       </c>
       <c r="D139" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F139" t="s">
         <v>17</v>
@@ -3871,12 +3876,12 @@
         <v>18</v>
       </c>
       <c r="H139" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B140">
         <v>1.5599999999999999E-2</v>
@@ -3894,12 +3899,12 @@
         <v>18</v>
       </c>
       <c r="H140" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B141">
         <v>0.36759999999999998</v>
@@ -3908,7 +3913,7 @@
         <v>15</v>
       </c>
       <c r="D141" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F141" t="s">
         <v>17</v>
@@ -3917,12 +3922,12 @@
         <v>18</v>
       </c>
       <c r="H141" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B142" s="6">
         <v>4.0000000000000001E-10</v>
@@ -3940,12 +3945,12 @@
         <v>18</v>
       </c>
       <c r="H142" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B143">
         <v>0.1099</v>
@@ -3963,12 +3968,12 @@
         <v>18</v>
       </c>
       <c r="H143" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B144">
         <v>2.92E-2</v>
@@ -3986,12 +3991,12 @@
         <v>18</v>
       </c>
       <c r="H144" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B145">
         <v>0.2215</v>
@@ -4009,12 +4014,12 @@
         <v>18</v>
       </c>
       <c r="H145" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B146">
         <v>4.1999999999999997E-3</v>
@@ -4032,12 +4037,12 @@
         <v>18</v>
       </c>
       <c r="H146" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="147" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B147" s="8">
         <f>0.8*10.0965</f>
@@ -4047,21 +4052,21 @@
         <v>15</v>
       </c>
       <c r="D147" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F147" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F147" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="G147" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H147" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B148">
         <v>3.0999999999999999E-3</v>
@@ -4079,12 +4084,12 @@
         <v>18</v>
       </c>
       <c r="H148" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B149">
         <v>1.1000000000000001E-3</v>
@@ -4102,12 +4107,12 @@
         <v>18</v>
       </c>
       <c r="H149" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B150">
         <v>2.5999999999999999E-2</v>
@@ -4125,12 +4130,12 @@
         <v>18</v>
       </c>
       <c r="H150" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B151">
         <v>2.92E-2</v>
@@ -4148,12 +4153,12 @@
         <v>18</v>
       </c>
       <c r="H151" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="152" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B152" s="8">
         <f>0.8*0.958424334</f>
@@ -4163,16 +4168,16 @@
         <v>15</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F152" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G152" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H152" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/all_included_hotel/inventories/lci_batteries.xlsx
+++ b/all_included_hotel/inventories/lci_batteries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vitoresearch-my.sharepoint.com/personal/roel_degens_vito_be/Documents/Desktop/Autumnschool_recharge/recharge-main/all_included_hotel/inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{F061798D-BCDB-4B82-B7AA-7C44C508D788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7E03FC0-0556-4CBF-99B2-7E158DB6E62E}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{F061798D-BCDB-4B82-B7AA-7C44C508D788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4214935-23AC-4DCA-A7F1-E478C3F76514}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{29BAEAEB-FD04-4545-830A-C2788DA59048}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{29BAEAEB-FD04-4545-830A-C2788DA59048}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -112,9 +112,6 @@
     <t>Carbon dioxide, fossil</t>
   </si>
   <si>
-    <t>battery cell, NMC-622</t>
-  </si>
-  <si>
     <t>market for heat, district or industrial, natural gas</t>
   </si>
   <si>
@@ -388,7 +385,10 @@
     <t>battery cell, Li-ion, NMC-622</t>
   </si>
   <si>
-    <t>battery cell, Li-ion, PLIB</t>
+    <t>battery cell production, PLIB</t>
+  </si>
+  <si>
+    <t>battery cell production, NMC-622</t>
   </si>
 </sst>
 </file>
@@ -774,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77A86B4-4A65-462C-855F-60225E3CE5BE}">
   <dimension ref="A1:H152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A136" sqref="A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -789,7 +789,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>0</v>
@@ -1070,13 +1070,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
@@ -1088,12 +1088,12 @@
         <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="4">
         <v>12.51</v>
@@ -1102,21 +1102,21 @@
         <v>15</v>
       </c>
       <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
         <v>39</v>
       </c>
-      <c r="F13" t="s">
-        <v>40</v>
-      </c>
       <c r="G13" t="s">
         <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="4">
         <v>1.1875</v>
@@ -1128,24 +1128,24 @@
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
         <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="4">
         <v>0.41</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
@@ -1157,12 +1157,12 @@
         <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="4">
         <v>0.2</v>
@@ -1180,12 +1180,12 @@
         <v>18</v>
       </c>
       <c r="H16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="4">
         <v>0.14599999999999999</v>
@@ -1203,12 +1203,12 @@
         <v>18</v>
       </c>
       <c r="H17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="4">
         <v>0.12</v>
@@ -1226,12 +1226,12 @@
         <v>18</v>
       </c>
       <c r="H18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="4">
         <v>3.3500000000000002E-2</v>
@@ -1249,12 +1249,12 @@
         <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="4">
         <v>3.3500000000000002E-2</v>
@@ -1272,12 +1272,12 @@
         <v>18</v>
       </c>
       <c r="H20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="4">
         <v>0.03</v>
@@ -1295,12 +1295,12 @@
         <v>18</v>
       </c>
       <c r="H21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="4">
         <v>2.8299999999999999E-2</v>
@@ -1318,12 +1318,12 @@
         <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="4">
         <v>2.8299999999999999E-2</v>
@@ -1341,18 +1341,18 @@
         <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="4">
         <v>0.02</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
         <v>16</v>
@@ -1364,12 +1364,12 @@
         <v>18</v>
       </c>
       <c r="H24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" s="4">
         <v>4.1000000000000003E-3</v>
@@ -1387,12 +1387,12 @@
         <v>18</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" s="4">
         <v>2.8E-3</v>
@@ -1410,12 +1410,12 @@
         <v>18</v>
       </c>
       <c r="H26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" s="4">
         <v>1.2999999999999999E-3</v>
@@ -1433,12 +1433,12 @@
         <v>18</v>
       </c>
       <c r="H27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" s="5">
         <v>4.0000000000000001E-10</v>
@@ -1456,7 +1456,7 @@
         <v>18</v>
       </c>
       <c r="H28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1484,7 +1484,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>0</v>
@@ -1562,7 +1562,7 @@
         <v>5</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>0</v>
@@ -1638,7 +1638,7 @@
         <v>8</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>0</v>
@@ -1713,13 +1713,13 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B40" s="3">
         <v>1</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D40" t="s">
         <v>16</v>
@@ -1732,12 +1732,12 @@
         <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B41" s="4">
         <v>2.7744750000000002E-3</v>
@@ -1746,22 +1746,22 @@
         <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" t="s">
+        <v>60</v>
+      </c>
+      <c r="G41" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" t="s">
         <v>61</v>
-      </c>
-      <c r="G41" t="s">
-        <v>18</v>
-      </c>
-      <c r="H41" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B42" s="4">
         <v>5.9188796000000002E-2</v>
@@ -1770,22 +1770,22 @@
         <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G42" t="s">
         <v>18</v>
       </c>
       <c r="H42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B43" s="4">
         <v>0.20568106799999999</v>
@@ -1798,18 +1798,18 @@
       </c>
       <c r="E43" s="1"/>
       <c r="F43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G43" t="s">
         <v>18</v>
       </c>
       <c r="H43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B44" s="4">
         <v>0.440587837837838</v>
@@ -1822,18 +1822,18 @@
       </c>
       <c r="E44" s="1"/>
       <c r="F44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G44" t="s">
         <v>18</v>
       </c>
       <c r="H44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B45" s="4">
         <v>2.5000000000000001E-2</v>
@@ -1852,12 +1852,12 @@
         <v>18</v>
       </c>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B46" s="4">
         <v>2.5000000000000001E-2</v>
@@ -1876,12 +1876,12 @@
         <v>18</v>
       </c>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B47" s="4">
         <v>25.864634146341501</v>
@@ -1890,22 +1890,22 @@
         <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G47" t="s">
         <v>18</v>
       </c>
       <c r="H47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B48" s="4">
         <v>5.5999999999999999E-3</v>
@@ -1924,12 +1924,12 @@
         <v>18</v>
       </c>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B49" s="5">
         <v>4.0000000000000001E-10</v>
@@ -1948,18 +1948,18 @@
         <v>18</v>
       </c>
       <c r="H49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B50" s="4">
         <v>0.95</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D50" t="s">
         <v>16</v>
@@ -1972,7 +1972,7 @@
         <v>18</v>
       </c>
       <c r="H50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -2000,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         <v>5</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>0</v>
@@ -2154,7 +2154,7 @@
         <v>8</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>0</v>
@@ -2229,13 +2229,13 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62" s="3">
         <v>1</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D62" t="s">
         <v>16</v>
@@ -2247,12 +2247,12 @@
         <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B63" s="4">
         <v>3.2859232000000002E-2</v>
@@ -2261,21 +2261,21 @@
         <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F63" t="s">
+        <v>60</v>
+      </c>
+      <c r="G63" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" t="s">
         <v>61</v>
-      </c>
-      <c r="G63" t="s">
-        <v>18</v>
-      </c>
-      <c r="H63" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B64" s="4">
         <v>2.6585139999999998E-3</v>
@@ -2284,21 +2284,21 @@
         <v>15</v>
       </c>
       <c r="D64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G64" t="s">
         <v>18</v>
       </c>
       <c r="H64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B65" s="4">
         <v>6.3697992999999994E-2</v>
@@ -2310,18 +2310,18 @@
         <v>16</v>
       </c>
       <c r="F65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G65" t="s">
         <v>18</v>
       </c>
       <c r="H65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B66" s="4">
         <v>2.2225175999999999E-2</v>
@@ -2330,21 +2330,21 @@
         <v>15</v>
       </c>
       <c r="D66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G66" t="s">
         <v>18</v>
       </c>
       <c r="H66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B67" s="4">
         <v>6.8736953390000002</v>
@@ -2356,18 +2356,18 @@
         <v>16</v>
       </c>
       <c r="F67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G67" t="s">
         <v>18</v>
       </c>
       <c r="H67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68" s="4">
         <v>0.38300000000000001</v>
@@ -2385,18 +2385,18 @@
         <v>18</v>
       </c>
       <c r="H68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69" s="4">
         <v>0.94899999999999995</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D69" t="s">
         <v>16</v>
@@ -2408,12 +2408,12 @@
         <v>18</v>
       </c>
       <c r="H69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B70" s="5">
         <v>7.4100000000000003E-10</v>
@@ -2431,7 +2431,7 @@
         <v>18</v>
       </c>
       <c r="H70" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -2445,7 +2445,7 @@
         <v>15</v>
       </c>
       <c r="E71" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F71" t="s">
         <v>17</v>
@@ -2457,7 +2457,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="4">
         <v>1.2504399999999999E-4</v>
@@ -2466,10 +2466,10 @@
         <v>15</v>
       </c>
       <c r="E72" t="s">
+        <v>74</v>
+      </c>
+      <c r="F72" t="s">
         <v>75</v>
-      </c>
-      <c r="F72" t="s">
-        <v>76</v>
       </c>
       <c r="G72" t="s">
         <v>19</v>
@@ -2489,7 +2489,7 @@
         <v>1</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>5</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>0</v>
@@ -2643,7 +2643,7 @@
         <v>8</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>0</v>
@@ -2718,13 +2718,13 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B83" s="3">
         <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D83" t="s">
         <v>16</v>
@@ -2737,12 +2737,12 @@
         <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B84" s="4">
         <v>2.6585139999999998E-3</v>
@@ -2751,22 +2751,22 @@
         <v>15</v>
       </c>
       <c r="D84" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G84" t="s">
         <v>18</v>
       </c>
       <c r="H84" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B85" s="4">
         <v>2.2225175999999999E-2</v>
@@ -2775,22 +2775,22 @@
         <v>15</v>
       </c>
       <c r="D85" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G85" t="s">
         <v>18</v>
       </c>
       <c r="H85" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B86" s="4">
         <v>3.2859232000000002E-2</v>
@@ -2799,22 +2799,22 @@
         <v>15</v>
       </c>
       <c r="D86" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" t="s">
+        <v>60</v>
+      </c>
+      <c r="G86" t="s">
+        <v>18</v>
+      </c>
+      <c r="H86" t="s">
         <v>61</v>
-      </c>
-      <c r="G86" t="s">
-        <v>18</v>
-      </c>
-      <c r="H86" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B87" s="4">
         <v>6.3697992999999994E-2</v>
@@ -2827,18 +2827,18 @@
       </c>
       <c r="E87" s="1"/>
       <c r="F87" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G87" t="s">
         <v>18</v>
       </c>
       <c r="H87" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B88" s="4">
         <v>39.556470381406903</v>
@@ -2847,22 +2847,22 @@
         <v>15</v>
       </c>
       <c r="D88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G88" t="s">
         <v>18</v>
       </c>
       <c r="H88" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B89" s="4">
         <v>0.86360624003470599</v>
@@ -2881,12 +2881,12 @@
         <v>18</v>
       </c>
       <c r="H89" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B90" s="4">
         <v>0.32600000000000001</v>
@@ -2895,7 +2895,7 @@
         <v>15</v>
       </c>
       <c r="D90" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" t="s">
@@ -2905,12 +2905,12 @@
         <v>18</v>
       </c>
       <c r="H90" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B91" s="4">
         <v>0.97799999999999998</v>
@@ -2929,12 +2929,12 @@
         <v>18</v>
       </c>
       <c r="H91" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B92" s="4">
         <v>0.32600000000000001</v>
@@ -2953,12 +2953,12 @@
         <v>18</v>
       </c>
       <c r="H92" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B93" s="4">
         <v>5.8764994003199598E-3</v>
@@ -2967,7 +2967,7 @@
         <v>15</v>
       </c>
       <c r="D93" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" t="s">
@@ -2977,12 +2977,12 @@
         <v>18</v>
       </c>
       <c r="H93" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B94" s="4">
         <v>7.1940002862808998E-10</v>
@@ -3001,12 +3001,12 @@
         <v>18</v>
       </c>
       <c r="H94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B95" s="4">
         <v>-6.1963397318955398E-4</v>
@@ -3015,17 +3015,17 @@
         <v>15</v>
       </c>
       <c r="D95" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G95" t="s">
         <v>18</v>
       </c>
       <c r="H95" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
@@ -3040,7 +3040,7 @@
       </c>
       <c r="D96" s="1"/>
       <c r="E96" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F96" t="s">
         <v>17</v>
@@ -3052,7 +3052,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B97" s="4">
         <v>6.1963397318955398E-4</v>
@@ -3062,10 +3062,10 @@
       </c>
       <c r="D97" s="1"/>
       <c r="E97" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F97" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G97" t="s">
         <v>19</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>5</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>0</v>
@@ -3231,7 +3231,7 @@
         <v>8</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>0</v>
@@ -3306,13 +3306,13 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B109" s="3">
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D109" t="s">
         <v>16</v>
@@ -3324,12 +3324,12 @@
         <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B110" s="4">
         <v>0.02</v>
@@ -3341,18 +3341,18 @@
         <v>16</v>
       </c>
       <c r="F110" t="s">
+        <v>60</v>
+      </c>
+      <c r="G110" t="s">
+        <v>18</v>
+      </c>
+      <c r="H110" t="s">
         <v>61</v>
-      </c>
-      <c r="G110" t="s">
-        <v>18</v>
-      </c>
-      <c r="H110" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B111" s="4">
         <v>0.02</v>
@@ -3361,21 +3361,21 @@
         <v>15</v>
       </c>
       <c r="D111" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F111" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G111" t="s">
         <v>18</v>
       </c>
       <c r="H111" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B112" s="4">
         <v>0.35088000000000003</v>
@@ -3393,12 +3393,12 @@
         <v>18</v>
       </c>
       <c r="H112" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B113" s="4">
         <v>0.35088000000000003</v>
@@ -3416,12 +3416,12 @@
         <v>18</v>
       </c>
       <c r="H113" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B114" s="4">
         <v>0.29117999999999999</v>
@@ -3439,12 +3439,12 @@
         <v>18</v>
       </c>
       <c r="H114" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B115" s="4">
         <v>0.21839</v>
@@ -3462,12 +3462,12 @@
         <v>18</v>
       </c>
       <c r="H115" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B116" s="4">
         <v>0.19327</v>
@@ -3476,21 +3476,21 @@
         <v>15</v>
       </c>
       <c r="D116" t="s">
+        <v>38</v>
+      </c>
+      <c r="F116" t="s">
         <v>39</v>
       </c>
-      <c r="F116" t="s">
-        <v>40</v>
-      </c>
       <c r="G116" t="s">
         <v>18</v>
       </c>
       <c r="H116" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B117" s="4">
         <v>0.19217999999999999</v>
@@ -3508,12 +3508,12 @@
         <v>18</v>
       </c>
       <c r="H117" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B118" s="4">
         <v>2.6207000000000001E-2</v>
@@ -3531,12 +3531,12 @@
         <v>18</v>
       </c>
       <c r="H118" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B119" s="4">
         <v>1.4376999999999999E-2</v>
@@ -3545,7 +3545,7 @@
         <v>15</v>
       </c>
       <c r="D119" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F119" t="s">
         <v>17</v>
@@ -3554,12 +3554,12 @@
         <v>18</v>
       </c>
       <c r="H119" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B120" s="4">
         <v>2E-3</v>
@@ -3571,18 +3571,18 @@
         <v>16</v>
       </c>
       <c r="F120" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G120" t="s">
         <v>18</v>
       </c>
       <c r="H120" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B121" s="5">
         <v>4.0000000000000001E-10</v>
@@ -3600,12 +3600,12 @@
         <v>18</v>
       </c>
       <c r="H121" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B122" s="4">
         <v>-5.3941999999999997E-2</v>
@@ -3614,7 +3614,7 @@
         <v>15</v>
       </c>
       <c r="D122" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F122" t="s">
         <v>17</v>
@@ -3623,7 +3623,7 @@
         <v>18</v>
       </c>
       <c r="H122" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3631,7 +3631,7 @@
         <v>1</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>0</v>
@@ -3682,7 +3682,7 @@
         <v>5</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>0</v>
@@ -3731,7 +3731,7 @@
         <v>8</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>0</v>
@@ -3788,13 +3788,13 @@
     </row>
     <row r="136" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="7" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B136" s="1">
         <v>1</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>16</v>
@@ -3807,12 +3807,12 @@
         <v>14</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B137">
         <v>4.9500000000000002E-2</v>
@@ -3830,12 +3830,12 @@
         <v>18</v>
       </c>
       <c r="H137" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B138">
         <v>2.5999999999999999E-2</v>
@@ -3853,12 +3853,12 @@
         <v>18</v>
       </c>
       <c r="H138" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B139">
         <v>0.1779</v>
@@ -3867,7 +3867,7 @@
         <v>15</v>
       </c>
       <c r="D139" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F139" t="s">
         <v>17</v>
@@ -3876,12 +3876,12 @@
         <v>18</v>
       </c>
       <c r="H139" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B140">
         <v>1.5599999999999999E-2</v>
@@ -3899,12 +3899,12 @@
         <v>18</v>
       </c>
       <c r="H140" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B141">
         <v>0.36759999999999998</v>
@@ -3913,7 +3913,7 @@
         <v>15</v>
       </c>
       <c r="D141" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F141" t="s">
         <v>17</v>
@@ -3922,12 +3922,12 @@
         <v>18</v>
       </c>
       <c r="H141" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B142" s="6">
         <v>4.0000000000000001E-10</v>
@@ -3945,12 +3945,12 @@
         <v>18</v>
       </c>
       <c r="H142" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B143">
         <v>0.1099</v>
@@ -3968,12 +3968,12 @@
         <v>18</v>
       </c>
       <c r="H143" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B144">
         <v>2.92E-2</v>
@@ -3991,12 +3991,12 @@
         <v>18</v>
       </c>
       <c r="H144" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B145">
         <v>0.2215</v>
@@ -4014,12 +4014,12 @@
         <v>18</v>
       </c>
       <c r="H145" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B146">
         <v>4.1999999999999997E-3</v>
@@ -4037,12 +4037,12 @@
         <v>18</v>
       </c>
       <c r="H146" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="147" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B147" s="8">
         <f>0.8*10.0965</f>
@@ -4052,21 +4052,21 @@
         <v>15</v>
       </c>
       <c r="D147" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F147" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F147" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="G147" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H147" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B148">
         <v>3.0999999999999999E-3</v>
@@ -4084,12 +4084,12 @@
         <v>18</v>
       </c>
       <c r="H148" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B149">
         <v>1.1000000000000001E-3</v>
@@ -4107,12 +4107,12 @@
         <v>18</v>
       </c>
       <c r="H149" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B150">
         <v>2.5999999999999999E-2</v>
@@ -4130,12 +4130,12 @@
         <v>18</v>
       </c>
       <c r="H150" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B151">
         <v>2.92E-2</v>
@@ -4153,12 +4153,12 @@
         <v>18</v>
       </c>
       <c r="H151" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="152" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B152" s="8">
         <f>0.8*0.958424334</f>
@@ -4168,16 +4168,16 @@
         <v>15</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F152" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G152" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H152" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
